--- a/trunk/1. Project management/8. Weekly report and evaluation/Weekly Report/1. RE Weekly Report/AS_PM_WeeklyReport_Week6.xlsx
+++ b/trunk/1. Project management/8. Weekly report and evaluation/Weekly Report/1. RE Weekly Report/AS_PM_WeeklyReport_Week6.xlsx
@@ -106,9 +106,6 @@
     <t>Team members front with semester II, so can't spend time for project</t>
   </si>
   <si>
-    <t>Plan for next week 6</t>
-  </si>
-  <si>
     <t>Meeting with mentor #4 to review works done at requirement stages</t>
   </si>
   <si>
@@ -201,6 +198,9 @@
   </si>
   <si>
     <t>Team should concentrate more time after semester II</t>
+  </si>
+  <si>
+    <t>Plan for next week 7</t>
   </si>
 </sst>
 </file>
@@ -1024,26 +1024,66 @@
     <xf numFmtId="14" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1051,11 +1091,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1093,15 +1139,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1114,64 +1151,27 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1477,7 +1477,7 @@
   <dimension ref="A1:XFD46"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32:I32"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1493,16 +1493,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -1517,10 +1517,10 @@
       <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="75" t="s">
-        <v>41</v>
-      </c>
-      <c r="B3" s="75"/>
+      <c r="A3" s="88" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="88"/>
       <c r="C3" s="2"/>
       <c r="D3" s="6" t="s">
         <v>1</v>
@@ -1534,10 +1534,10 @@
       <c r="I3" s="2"/>
     </row>
     <row r="4" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="75" t="s">
+      <c r="A4" s="88" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="75"/>
+      <c r="B4" s="88"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -1558,17 +1558,17 @@
       <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="95" t="s">
-        <v>40</v>
-      </c>
-      <c r="B6" s="95"/>
-      <c r="C6" s="95"/>
-      <c r="D6" s="95"/>
-      <c r="E6" s="95"/>
-      <c r="F6" s="95"/>
-      <c r="G6" s="95"/>
-      <c r="H6" s="95"/>
-      <c r="I6" s="95"/>
+      <c r="A6" s="74" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="74"/>
+      <c r="C6" s="74"/>
+      <c r="D6" s="74"/>
+      <c r="E6" s="74"/>
+      <c r="F6" s="74"/>
+      <c r="G6" s="74"/>
+      <c r="H6" s="74"/>
+      <c r="I6" s="74"/>
     </row>
     <row r="7" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
@@ -1616,17 +1616,17 @@
       <c r="G9" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="H9" s="76" t="s">
+      <c r="H9" s="89" t="s">
         <v>9</v>
       </c>
-      <c r="I9" s="77"/>
+      <c r="I9" s="90"/>
     </row>
     <row r="10" spans="1:9" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="39">
         <v>1</v>
       </c>
       <c r="B10" s="40" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C10" s="39" t="s">
         <v>22</v>
@@ -1643,15 +1643,15 @@
       <c r="G10" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="H10" s="48"/>
-      <c r="I10" s="48"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="53"/>
     </row>
     <row r="11" spans="1:9" ht="78" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="39">
         <v>2</v>
       </c>
       <c r="B11" s="43" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C11" s="39" t="s">
         <v>22</v>
@@ -1668,15 +1668,15 @@
       <c r="G11" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="H11" s="48"/>
-      <c r="I11" s="48"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="53"/>
     </row>
     <row r="12" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A12" s="39">
         <v>3</v>
       </c>
       <c r="B12" s="43" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C12" s="39" t="s">
         <v>22</v>
@@ -1693,24 +1693,24 @@
       <c r="G12" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="H12" s="48"/>
-      <c r="I12" s="48"/>
+      <c r="H12" s="53"/>
+      <c r="I12" s="53"/>
     </row>
     <row r="13" spans="1:9" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="39">
         <v>4</v>
       </c>
       <c r="B13" s="44" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C13" s="39" t="s">
         <v>22</v>
       </c>
       <c r="D13" s="40" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E13" s="40" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F13" s="39" t="s">
         <v>24</v>
@@ -1718,21 +1718,21 @@
       <c r="G13" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="H13" s="83"/>
-      <c r="I13" s="48"/>
+      <c r="H13" s="52"/>
+      <c r="I13" s="53"/>
     </row>
     <row r="14" spans="1:9" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="39">
         <v>5</v>
       </c>
       <c r="B14" s="46" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C14" s="39" t="s">
         <v>22</v>
       </c>
       <c r="D14" s="40" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E14" s="47" t="s">
         <v>28</v>
@@ -1743,10 +1743,10 @@
       <c r="G14" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="H14" s="83" t="s">
-        <v>39</v>
-      </c>
-      <c r="I14" s="48"/>
+      <c r="H14" s="52" t="s">
+        <v>38</v>
+      </c>
+      <c r="I14" s="53"/>
     </row>
     <row r="15" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A15" s="39">
@@ -1770,15 +1770,15 @@
       <c r="G15" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="H15" s="48"/>
-      <c r="I15" s="48"/>
+      <c r="H15" s="53"/>
+      <c r="I15" s="53"/>
     </row>
     <row r="16" spans="1:9" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A16" s="39">
         <v>7</v>
       </c>
       <c r="B16" s="43" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C16" s="39" t="s">
         <v>22</v>
@@ -1793,21 +1793,21 @@
       <c r="G16" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="H16" s="48"/>
-      <c r="I16" s="48"/>
+      <c r="H16" s="53"/>
+      <c r="I16" s="53"/>
     </row>
     <row r="17" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="39">
         <v>8</v>
       </c>
       <c r="B17" s="44" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C17" s="39" t="s">
         <v>22</v>
       </c>
       <c r="D17" s="42" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E17" s="45"/>
       <c r="F17" s="39" t="s">
@@ -1816,8 +1816,8 @@
       <c r="G17" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="H17" s="48"/>
-      <c r="I17" s="48"/>
+      <c r="H17" s="53"/>
+      <c r="I17" s="53"/>
     </row>
     <row r="18" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A18" s="9"/>
@@ -1832,7 +1832,7 @@
     </row>
     <row r="19" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="11" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="B19" s="10"/>
       <c r="C19" s="10"/>
@@ -1847,117 +1847,117 @@
       <c r="A20" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B20" s="90" t="s">
+      <c r="B20" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="C20" s="91"/>
-      <c r="D20" s="91"/>
-      <c r="E20" s="92"/>
+      <c r="C20" s="64"/>
+      <c r="D20" s="64"/>
+      <c r="E20" s="65"/>
       <c r="F20" s="25" t="s">
         <v>6</v>
       </c>
       <c r="G20" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="H20" s="78" t="s">
+      <c r="H20" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="I20" s="79"/>
+      <c r="I20" s="72"/>
     </row>
     <row r="21" spans="1:9" ht="94.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="12">
         <v>1</v>
       </c>
-      <c r="B21" s="57" t="s">
-        <v>43</v>
-      </c>
-      <c r="C21" s="55"/>
-      <c r="D21" s="55"/>
-      <c r="E21" s="56"/>
-      <c r="F21" s="97" t="s">
-        <v>32</v>
+      <c r="B21" s="68" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" s="69"/>
+      <c r="D21" s="69"/>
+      <c r="E21" s="70"/>
+      <c r="F21" s="48" t="s">
+        <v>31</v>
       </c>
       <c r="G21" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="H21" s="51"/>
-      <c r="I21" s="52"/>
+      <c r="H21" s="94"/>
+      <c r="I21" s="95"/>
     </row>
     <row r="22" spans="1:9" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="12">
         <v>2</v>
       </c>
-      <c r="B22" s="57" t="s">
-        <v>44</v>
-      </c>
-      <c r="C22" s="55"/>
-      <c r="D22" s="55"/>
-      <c r="E22" s="56"/>
-      <c r="F22" s="97" t="s">
-        <v>50</v>
+      <c r="B22" s="68" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" s="69"/>
+      <c r="D22" s="69"/>
+      <c r="E22" s="70"/>
+      <c r="F22" s="48" t="s">
+        <v>49</v>
       </c>
       <c r="G22" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="H22" s="51"/>
-      <c r="I22" s="52"/>
+      <c r="H22" s="94"/>
+      <c r="I22" s="95"/>
     </row>
     <row r="23" spans="1:9" ht="76.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="8">
         <v>3</v>
       </c>
-      <c r="B23" s="57" t="s">
-        <v>45</v>
-      </c>
-      <c r="C23" s="55"/>
-      <c r="D23" s="55"/>
-      <c r="E23" s="56"/>
-      <c r="F23" s="97" t="s">
-        <v>49</v>
+      <c r="B23" s="68" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" s="69"/>
+      <c r="D23" s="69"/>
+      <c r="E23" s="70"/>
+      <c r="F23" s="48" t="s">
+        <v>48</v>
       </c>
       <c r="G23" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="H23" s="51"/>
-      <c r="I23" s="52"/>
+      <c r="H23" s="94"/>
+      <c r="I23" s="95"/>
     </row>
     <row r="24" spans="1:9" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="15">
         <v>4</v>
       </c>
-      <c r="B24" s="57" t="s">
-        <v>46</v>
-      </c>
-      <c r="C24" s="55"/>
-      <c r="D24" s="55"/>
-      <c r="E24" s="56"/>
-      <c r="F24" s="97" t="s">
-        <v>49</v>
+      <c r="B24" s="68" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" s="69"/>
+      <c r="D24" s="69"/>
+      <c r="E24" s="70"/>
+      <c r="F24" s="48" t="s">
+        <v>48</v>
       </c>
       <c r="G24" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="H24" s="51"/>
-      <c r="I24" s="52"/>
+      <c r="H24" s="94"/>
+      <c r="I24" s="95"/>
     </row>
     <row r="25" spans="1:9" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="16">
         <v>5</v>
       </c>
-      <c r="B25" s="96" t="s">
+      <c r="B25" s="91" t="s">
+        <v>46</v>
+      </c>
+      <c r="C25" s="92"/>
+      <c r="D25" s="92"/>
+      <c r="E25" s="93"/>
+      <c r="F25" s="48" t="s">
         <v>47</v>
       </c>
-      <c r="C25" s="49"/>
-      <c r="D25" s="49"/>
-      <c r="E25" s="50"/>
-      <c r="F25" s="97" t="s">
-        <v>48</v>
-      </c>
       <c r="G25" s="33" t="s">
-        <v>51</v>
-      </c>
-      <c r="H25" s="53"/>
-      <c r="I25" s="54"/>
+        <v>50</v>
+      </c>
+      <c r="H25" s="96"/>
+      <c r="I25" s="97"/>
     </row>
     <row r="26" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A26" s="4"/>
@@ -1987,74 +1987,74 @@
       <c r="A28" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="B28" s="64" t="s">
+      <c r="B28" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="C28" s="64"/>
-      <c r="D28" s="64"/>
-      <c r="E28" s="64" t="s">
+      <c r="C28" s="80"/>
+      <c r="D28" s="80"/>
+      <c r="E28" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="F28" s="64"/>
-      <c r="G28" s="64"/>
-      <c r="H28" s="64"/>
-      <c r="I28" s="74"/>
+      <c r="F28" s="80"/>
+      <c r="G28" s="80"/>
+      <c r="H28" s="80"/>
+      <c r="I28" s="87"/>
     </row>
     <row r="29" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A29" s="13">
         <v>1</v>
       </c>
-      <c r="B29" s="71" t="s">
+      <c r="B29" s="54" t="s">
+        <v>53</v>
+      </c>
+      <c r="C29" s="55"/>
+      <c r="D29" s="56"/>
+      <c r="E29" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="C29" s="72"/>
-      <c r="D29" s="73"/>
-      <c r="E29" s="87" t="s">
-        <v>55</v>
-      </c>
-      <c r="F29" s="88"/>
-      <c r="G29" s="88"/>
-      <c r="H29" s="88"/>
-      <c r="I29" s="89"/>
+      <c r="F29" s="61"/>
+      <c r="G29" s="61"/>
+      <c r="H29" s="61"/>
+      <c r="I29" s="62"/>
     </row>
     <row r="30" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A30" s="13">
         <v>2</v>
       </c>
-      <c r="B30" s="87"/>
-      <c r="C30" s="88"/>
-      <c r="D30" s="88"/>
-      <c r="E30" s="87"/>
-      <c r="F30" s="88"/>
-      <c r="G30" s="88"/>
-      <c r="H30" s="88"/>
-      <c r="I30" s="89"/>
+      <c r="B30" s="60"/>
+      <c r="C30" s="61"/>
+      <c r="D30" s="61"/>
+      <c r="E30" s="60"/>
+      <c r="F30" s="61"/>
+      <c r="G30" s="61"/>
+      <c r="H30" s="61"/>
+      <c r="I30" s="62"/>
     </row>
     <row r="31" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A31" s="13">
         <v>3</v>
       </c>
-      <c r="B31" s="87"/>
-      <c r="C31" s="88"/>
-      <c r="D31" s="88"/>
-      <c r="E31" s="87"/>
-      <c r="F31" s="88"/>
-      <c r="G31" s="88"/>
-      <c r="H31" s="88"/>
-      <c r="I31" s="89"/>
+      <c r="B31" s="60"/>
+      <c r="C31" s="61"/>
+      <c r="D31" s="61"/>
+      <c r="E31" s="60"/>
+      <c r="F31" s="61"/>
+      <c r="G31" s="61"/>
+      <c r="H31" s="61"/>
+      <c r="I31" s="62"/>
     </row>
     <row r="32" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="14">
         <v>4</v>
       </c>
-      <c r="B32" s="93"/>
-      <c r="C32" s="93"/>
-      <c r="D32" s="93"/>
-      <c r="E32" s="93"/>
-      <c r="F32" s="93"/>
-      <c r="G32" s="93"/>
-      <c r="H32" s="93"/>
-      <c r="I32" s="94"/>
+      <c r="B32" s="66"/>
+      <c r="C32" s="66"/>
+      <c r="D32" s="66"/>
+      <c r="E32" s="66"/>
+      <c r="F32" s="66"/>
+      <c r="G32" s="66"/>
+      <c r="H32" s="66"/>
+      <c r="I32" s="67"/>
     </row>
     <row r="33" spans="1:16384" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A33" s="4"/>
@@ -2084,19 +2084,19 @@
       <c r="A35" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="B35" s="61" t="s">
+      <c r="B35" s="77" t="s">
         <v>15</v>
       </c>
-      <c r="C35" s="62"/>
-      <c r="D35" s="63"/>
+      <c r="C35" s="78"/>
+      <c r="D35" s="79"/>
       <c r="E35" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="F35" s="64" t="s">
+      <c r="F35" s="80" t="s">
         <v>17</v>
       </c>
-      <c r="G35" s="64"/>
-      <c r="H35" s="64"/>
+      <c r="G35" s="80"/>
+      <c r="H35" s="80"/>
       <c r="I35" s="24" t="s">
         <v>10</v>
       </c>
@@ -2105,19 +2105,19 @@
       <c r="A36" s="30">
         <v>1</v>
       </c>
-      <c r="B36" s="65" t="s">
+      <c r="B36" s="81" t="s">
+        <v>51</v>
+      </c>
+      <c r="C36" s="82"/>
+      <c r="D36" s="82"/>
+      <c r="E36" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="F36" s="81" t="s">
         <v>52</v>
       </c>
-      <c r="C36" s="66"/>
-      <c r="D36" s="66"/>
-      <c r="E36" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="F36" s="65" t="s">
-        <v>53</v>
-      </c>
-      <c r="G36" s="66"/>
-      <c r="H36" s="66"/>
+      <c r="G36" s="82"/>
+      <c r="H36" s="82"/>
       <c r="I36" s="27" t="s">
         <v>23</v>
       </c>
@@ -2126,15 +2126,15 @@
       <c r="A37" s="30">
         <v>2</v>
       </c>
-      <c r="B37" s="71" t="s">
+      <c r="B37" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="C37" s="72"/>
-      <c r="D37" s="73"/>
+      <c r="C37" s="55"/>
+      <c r="D37" s="56"/>
       <c r="E37" s="29"/>
-      <c r="F37" s="71"/>
-      <c r="G37" s="72"/>
-      <c r="H37" s="73"/>
+      <c r="F37" s="54"/>
+      <c r="G37" s="55"/>
+      <c r="H37" s="56"/>
       <c r="I37" s="27" t="s">
         <v>23</v>
       </c>
@@ -2143,13 +2143,13 @@
       <c r="A38" s="30">
         <v>3</v>
       </c>
-      <c r="B38" s="71"/>
-      <c r="C38" s="72"/>
-      <c r="D38" s="73"/>
+      <c r="B38" s="54"/>
+      <c r="C38" s="55"/>
+      <c r="D38" s="56"/>
       <c r="E38" s="29"/>
-      <c r="F38" s="84"/>
-      <c r="G38" s="85"/>
-      <c r="H38" s="86"/>
+      <c r="F38" s="57"/>
+      <c r="G38" s="58"/>
+      <c r="H38" s="59"/>
       <c r="I38" s="27"/>
     </row>
     <row r="39" spans="1:16384" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -2169,16 +2169,16 @@
       <c r="A40" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="B40" s="67" t="s">
+      <c r="B40" s="83" t="s">
         <v>19</v>
       </c>
-      <c r="C40" s="68"/>
-      <c r="D40" s="68"/>
-      <c r="E40" s="68"/>
-      <c r="F40" s="68"/>
-      <c r="G40" s="68"/>
-      <c r="H40" s="68"/>
-      <c r="I40" s="69"/>
+      <c r="C40" s="84"/>
+      <c r="D40" s="84"/>
+      <c r="E40" s="84"/>
+      <c r="F40" s="84"/>
+      <c r="G40" s="84"/>
+      <c r="H40" s="84"/>
+      <c r="I40" s="85"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c r="L40" s="9"/>
@@ -51019,14 +51019,14 @@
       <c r="A41" s="15">
         <v>1</v>
       </c>
-      <c r="B41" s="59"/>
-      <c r="C41" s="60"/>
-      <c r="D41" s="60"/>
-      <c r="E41" s="60"/>
-      <c r="F41" s="60"/>
-      <c r="G41" s="60"/>
-      <c r="H41" s="60"/>
-      <c r="I41" s="70"/>
+      <c r="B41" s="75"/>
+      <c r="C41" s="76"/>
+      <c r="D41" s="76"/>
+      <c r="E41" s="76"/>
+      <c r="F41" s="76"/>
+      <c r="G41" s="76"/>
+      <c r="H41" s="76"/>
+      <c r="I41" s="86"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c r="L41" s="9"/>
@@ -67407,27 +67407,27 @@
       <c r="A42" s="15">
         <v>2</v>
       </c>
-      <c r="B42" s="59"/>
-      <c r="C42" s="60"/>
-      <c r="D42" s="60"/>
-      <c r="E42" s="60"/>
-      <c r="F42" s="60"/>
-      <c r="G42" s="60"/>
-      <c r="H42" s="60"/>
+      <c r="B42" s="75"/>
+      <c r="C42" s="76"/>
+      <c r="D42" s="76"/>
+      <c r="E42" s="76"/>
+      <c r="F42" s="76"/>
+      <c r="G42" s="76"/>
+      <c r="H42" s="76"/>
       <c r="I42" s="31"/>
     </row>
     <row r="43" spans="1:16384" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="16">
         <v>3</v>
       </c>
-      <c r="B43" s="80"/>
-      <c r="C43" s="81"/>
-      <c r="D43" s="81"/>
-      <c r="E43" s="81"/>
-      <c r="F43" s="81"/>
-      <c r="G43" s="81"/>
-      <c r="H43" s="81"/>
-      <c r="I43" s="82"/>
+      <c r="B43" s="49"/>
+      <c r="C43" s="50"/>
+      <c r="D43" s="50"/>
+      <c r="E43" s="50"/>
+      <c r="F43" s="50"/>
+      <c r="G43" s="50"/>
+      <c r="H43" s="50"/>
+      <c r="I43" s="51"/>
     </row>
     <row r="44" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
@@ -67464,6 +67464,37 @@
     </row>
   </sheetData>
   <mergeCells count="47">
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A6:I6"/>
+    <mergeCell ref="B42:H42"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="F35:H35"/>
+    <mergeCell ref="F36:H36"/>
+    <mergeCell ref="B40:I40"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B41:I41"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="F37:H37"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="E28:I28"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="H16:I16"/>
     <mergeCell ref="B43:I43"/>
     <mergeCell ref="H13:I13"/>
     <mergeCell ref="H14:I14"/>
@@ -67480,37 +67511,6 @@
     <mergeCell ref="E32:I32"/>
     <mergeCell ref="B21:E21"/>
     <mergeCell ref="B22:E22"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A6:I6"/>
-    <mergeCell ref="B42:H42"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="F35:H35"/>
-    <mergeCell ref="F36:H36"/>
-    <mergeCell ref="B40:I40"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B41:I41"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="F37:H37"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="E28:I28"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="B23:E23"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C10:C17">
